--- a/forms_api/static/xlsx_files/filled_form/1/1_.xlsx
+++ b/forms_api/static/xlsx_files/filled_form/1/1_.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>Counter</t>
   </si>
@@ -49,7 +49,8 @@
     <t>Required</t>
   </si>
   <si>
-    <t>No answer was given</t>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>No value given</t>
@@ -80,10 +81,6 @@
   </si>
   <si>
     <t>True</t>
-  </si>
-  <si>
-    <t xml:space="preserve">st
-</t>
   </si>
 </sst>
 </file>
@@ -129,13 +126,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FF008000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF008000"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -160,8 +157,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -509,7 +506,7 @@
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
@@ -521,7 +518,7 @@
       <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I2" t="s">
@@ -538,10 +535,10 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D3" t="s">
@@ -553,7 +550,7 @@
       <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I3" t="s">
